--- a/Examples/orcvcr/orcvcr_model.xlsx
+++ b/Examples/orcvcr/orcvcr_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\ExIOLab\Examples\orcvcr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\orcvcr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2B78E5-DA13-40ED-9F3D-13F201A1DAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAC4000-124D-43C7-B68B-F8F10D48C83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10110" yWindow="3195" windowWidth="16020" windowHeight="10785" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="8" xr2:uid="{E29BBF69-888A-4B0D-A36F-5F6BD99DC033}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical Diagram" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="ResourcesCost" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="DATOS" localSheetId="4">Exergy!$A$1:$C$13</definedName>
+    <definedName name="DATOS" localSheetId="4">Exergy!#REF!</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -49,18 +49,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{F9560824-894D-4A32-9615-F0425A6B2F6D}" name="DATOS" type="6" refreshedVersion="7" deleted="1" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="C:\Users\ctorr\OneDrive - unizar.es\Termoeconomia\ECOS 2022\DATOS.txt" tab="0" space="1" consecutive="1">
-      <textFields count="5">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="tgas_fmt" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="tgas_fmt" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\es17155931r\Personal\Termoeconomia\ExIOLab2\Ejemplos\tgas\tgas_fmt.csv" comma="1">
       <textFields count="4">
         <textField/>
@@ -74,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="87">
   <si>
     <t>Flows</t>
   </si>
@@ -163,6 +152,9 @@
     <t>B8</t>
   </si>
   <si>
+    <t>WT</t>
+  </si>
+  <si>
     <t>WC</t>
   </si>
   <si>
@@ -172,6 +164,9 @@
     <t>QEVP</t>
   </si>
   <si>
+    <t>WN</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
@@ -199,6 +194,9 @@
     <t>EVAP</t>
   </si>
   <si>
+    <t>GEN</t>
+  </si>
+  <si>
     <t>CND</t>
   </si>
   <si>
@@ -220,6 +218,9 @@
     <t>Evaporator</t>
   </si>
   <si>
+    <t>Alternator</t>
+  </si>
+  <si>
     <t>Condeser</t>
   </si>
   <si>
@@ -235,6 +236,12 @@
     <t>(B2-B3)+(B8-B5)</t>
   </si>
   <si>
+    <t>WT-WC</t>
+  </si>
+  <si>
+    <t>WN+WP</t>
+  </si>
+  <si>
     <t>B4-B3</t>
   </si>
   <si>
@@ -286,13 +293,16 @@
     <t>R227ea</t>
   </si>
   <si>
-    <t>WVEXP</t>
-  </si>
-  <si>
     <t>recycle</t>
   </si>
   <si>
-    <t>Base</t>
+    <t>ETAT75</t>
+  </si>
+  <si>
+    <t>QEXP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type </t>
   </si>
   <si>
     <t>(kW)</t>
@@ -304,10 +314,16 @@
     <t>(c/kWh)</t>
   </si>
   <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>ETAT75</t>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>WT10</t>
+  </si>
+  <si>
+    <t>External</t>
   </si>
 </sst>
 </file>
@@ -329,7 +345,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,6 +364,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -361,10 +383,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,11 +472,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DATOS" connectionId="1" xr16:uid="{5A965644-89DA-4768-9671-46246BE12D44}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tgas_fmt" connectionId="2" xr16:uid="{002D99B8-B987-44F1-A87D-4E0A74F66989}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tgas_fmt" connectionId="1" xr16:uid="{002D99B8-B987-44F1-A87D-4E0A74F66989}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -866,10 +885,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA800F1F-DBEE-4C6D-A6B2-333F3D8AE415}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,38 +978,54 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1004,7 +1039,7 @@
           <x14:formula1>
             <xm:f>Validate!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B14</xm:sqref>
+          <xm:sqref>B2:B16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1014,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E5D138-EAF1-4FBB-AB5C-0C0C44730BFD}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,13 +1067,13 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
@@ -1046,16 +1081,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -1063,13 +1098,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -1080,16 +1115,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -1097,16 +1132,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -1114,16 +1149,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -1131,19 +1166,19 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1151,15 +1186,32 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1172,7 +1224,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E7 E2:E6 E8</xm:sqref>
+          <xm:sqref>E8 E2:E7 E9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1182,117 +1234,134 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C71C192-3DC3-406B-9DFF-73A67AE08F6E}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
-        <v>67</v>
-      </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>Flows!A2</f>
         <v>B1</v>
       </c>
       <c r="B2">
-        <v>85.04</v>
+        <v>85.15</v>
       </c>
       <c r="C2">
-        <v>91.1</v>
+        <v>112.7</v>
       </c>
       <c r="D2">
-        <v>128.30000000000001</v>
+        <v>91.23</v>
       </c>
       <c r="E2">
-        <v>108.3</v>
+        <v>128.6</v>
       </c>
       <c r="F2">
-        <v>105.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108.6</v>
+      </c>
+      <c r="G2">
+        <v>105.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>Flows!A3</f>
         <v>B2</v>
       </c>
       <c r="B3">
-        <v>43.54</v>
+        <v>43.6</v>
       </c>
       <c r="C3">
-        <v>46.79</v>
+        <v>57.7</v>
       </c>
       <c r="D3">
-        <v>82.92</v>
+        <v>46.86</v>
       </c>
       <c r="E3">
-        <v>61.8</v>
+        <v>83.15</v>
       </c>
       <c r="F3">
-        <v>61.73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61.96</v>
+      </c>
+      <c r="G3">
+        <v>61.87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>Flows!A4</f>
         <v>B3</v>
       </c>
       <c r="B4">
-        <v>38.58</v>
+        <v>38.630000000000003</v>
       </c>
       <c r="C4">
-        <v>41.33</v>
+        <v>51.13</v>
       </c>
       <c r="D4">
-        <v>78.03</v>
+        <v>41.39</v>
       </c>
       <c r="E4">
-        <v>55.61</v>
+        <v>78.25</v>
       </c>
       <c r="F4">
-        <v>56.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55.76</v>
+      </c>
+      <c r="G4">
+        <v>57.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Flows!A5</f>
         <v>B4</v>
       </c>
       <c r="B5">
-        <v>40.31</v>
+        <v>40.36</v>
       </c>
       <c r="C5">
-        <v>43.18</v>
+        <v>53.42</v>
       </c>
       <c r="D5">
-        <v>81.8</v>
+        <v>43.24</v>
       </c>
       <c r="E5">
-        <v>59.18</v>
+        <v>82.03</v>
       </c>
       <c r="F5">
-        <v>59.76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59.33</v>
+      </c>
+      <c r="G5">
+        <v>59.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Flows!A6</f>
         <v>B5</v>
@@ -1304,16 +1373,19 @@
         <v>43.79</v>
       </c>
       <c r="D6">
+        <v>43.79</v>
+      </c>
+      <c r="E6">
         <v>67.66</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>55.39</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>56.31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Flows!A7</f>
         <v>B6</v>
@@ -1325,16 +1397,19 @@
         <v>41.06</v>
       </c>
       <c r="D7">
+        <v>41.06</v>
+      </c>
+      <c r="E7">
         <v>64.61</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>51.27</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>53.17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>Flows!A8</f>
         <v>B7</v>
@@ -1346,16 +1421,19 @@
         <v>23.09</v>
       </c>
       <c r="D8">
+        <v>23.09</v>
+      </c>
+      <c r="E8">
         <v>46.65</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>33.450000000000003</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>35.380000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>Flows!A9</f>
         <v>B8</v>
@@ -1367,149 +1445,219 @@
         <v>48.44</v>
       </c>
       <c r="D9">
+        <v>48.44</v>
+      </c>
+      <c r="E9">
         <v>72.45</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>60.3</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>61.02</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>Flows!A10</f>
-        <v>WC</v>
+        <v>WT</v>
       </c>
       <c r="B10">
-        <v>31.55</v>
+        <v>33.619999999999997</v>
       </c>
       <c r="C10">
-        <v>31.55</v>
+        <v>44.5</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>33.770000000000003</v>
       </c>
       <c r="E10">
-        <v>33.42</v>
+        <v>36.51</v>
       </c>
       <c r="F10">
-        <v>31.91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G10">
+        <v>35.340000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>Flows!A11</f>
-        <v>WP</v>
+        <v>WC</v>
       </c>
       <c r="B11">
-        <v>2.028</v>
+        <v>31.55</v>
       </c>
       <c r="C11">
-        <v>2.173</v>
+        <v>31.55</v>
       </c>
       <c r="D11">
-        <v>4.4080000000000004</v>
+        <v>31.55</v>
       </c>
       <c r="E11">
-        <v>4.1769999999999996</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>3.3519999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33.42</v>
+      </c>
+      <c r="G11">
+        <v>31.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>Flows!A12</f>
-        <v>QBLR</v>
+        <v>WP</v>
       </c>
       <c r="B12">
-        <v>63.34</v>
+        <v>2.0310000000000001</v>
       </c>
       <c r="C12">
-        <v>67.849999999999994</v>
+        <v>2.6880000000000002</v>
       </c>
       <c r="D12">
-        <v>69.14</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="E12">
-        <v>75.650000000000006</v>
+        <v>4.4210000000000003</v>
       </c>
       <c r="F12">
-        <v>67.56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.1879999999999997</v>
+      </c>
+      <c r="G12">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>Flows!A13</f>
-        <v>QEVP</v>
+        <v>QBLR</v>
       </c>
       <c r="B13">
-        <v>13.24</v>
+        <v>63.42</v>
       </c>
       <c r="C13">
-        <v>13.24</v>
+        <v>83.94</v>
       </c>
       <c r="D13">
-        <v>13.24</v>
+        <v>67.95</v>
       </c>
       <c r="E13">
-        <v>13.24</v>
+        <v>69.33</v>
       </c>
       <c r="F13">
-        <v>13.24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75.849999999999994</v>
+      </c>
+      <c r="G13">
+        <v>67.709999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>Flows!A14</f>
-        <v>WVEXP</v>
+        <v>QEVP</v>
       </c>
       <c r="B14">
+        <v>13.24</v>
+      </c>
+      <c r="C14">
+        <v>13.24</v>
+      </c>
+      <c r="D14">
+        <v>13.24</v>
+      </c>
+      <c r="E14">
+        <v>13.24</v>
+      </c>
+      <c r="F14">
+        <v>13.24</v>
+      </c>
+      <c r="G14">
+        <v>13.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>Flows!A15</f>
+        <v>WN</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>Flows!A16</f>
+        <v>QEXP</v>
+      </c>
+      <c r="B16">
         <f>B6-B7</f>
         <v>2.7299999999999969</v>
       </c>
-      <c r="C14">
-        <f t="shared" ref="C14:F14" si="0">C6-C7</f>
+      <c r="C16">
+        <f t="shared" ref="C16:G16" si="0">C6-C7</f>
         <v>2.7299999999999969</v>
       </c>
-      <c r="D14">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>2.7299999999999969</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>3.0499999999999972</v>
       </c>
-      <c r="E14">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>4.1199999999999974</v>
       </c>
-      <c r="F14">
+      <c r="G16">
         <f t="shared" si="0"/>
         <v>3.1400000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>Flows!A15</f>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>Flows!A17</f>
         <v>QCND</v>
       </c>
-      <c r="B15">
-        <f>B3+B9-B4-B6</f>
-        <v>9.6099999999999923</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ref="C15:F15" si="1">C3+C9-C4-C6</f>
-        <v>10.109999999999992</v>
-      </c>
-      <c r="D15">
+      <c r="B17">
+        <f t="shared" ref="B17:C17" si="1">B3-B4+B9-B6</f>
+        <v>9.6199999999999974</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="1"/>
-        <v>9.6800000000000068</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>11.099999999999994</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>9.539999999999992</v>
+        <v>11.219999999999999</v>
+      </c>
+      <c r="D17">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="E17">
+        <f>E3-E4+E9-E6</f>
+        <v>9.6900000000000119</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:G17" si="2">F3-F4+F9-F6</f>
+        <v>11.11</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>9.5600000000000023</v>
       </c>
     </row>
   </sheetData>
@@ -1521,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0C34D9-3156-4D42-9D3A-CA3AAFB07BAA}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,13 +1683,13 @@
         <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1552,29 +1700,29 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -1583,26 +1731,26 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -1611,21 +1759,21 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1638,7 +1786,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,15 +1802,15 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1670,10 +1818,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1698,28 +1846,89 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5F385F-C817-40BD-A5CF-BFEFDFAA0650}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B2">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
         <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1728,112 +1937,136 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54DA1E2-2B1A-49A1-AB14-413C4CF7D9B8}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C739F77A-4BB8-47BE-8329-5157E8DF3B0D}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>Flows!A12</f>
-        <v>QBLR</v>
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
         <f>Processes!A2</f>
         <v>BLR</v>
       </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>7.6829145810398263</v>
+      </c>
+      <c r="D3">
+        <v>7.6829145810398263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>Processes!A3</f>
+        <v>TRB</v>
+      </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4">
-        <v>7.004190200308444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32.311730674775212</v>
+      </c>
+      <c r="D4">
+        <v>32.311730674775212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>Processes!A3</f>
-        <v>TRB</v>
+        <f>Processes!A4</f>
+        <v>PMP</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
-        <v>31.339050557925784</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1903198604744736</v>
+      </c>
+      <c r="D5">
+        <v>1.1903198604744736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>Processes!A4</f>
-        <v>PMP</v>
+        <f>Processes!A5</f>
+        <v>CMP</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6">
-        <v>1.1903198604744736</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27.921452616599066</v>
+      </c>
+      <c r="D6">
+        <v>27.921452616599066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>Processes!A5</f>
-        <v>CMP</v>
+        <f>Processes!A6</f>
+        <v>EVAP</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7">
-        <v>27.027583117112073</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.1349685240054317</v>
+      </c>
+      <c r="D7">
+        <v>9.1349685240054317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>Processes!A6</f>
-        <v>EVAP</v>
+        <f>Processes!A7</f>
+        <v>GEN</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8">
-        <v>9.1349685240054317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17.321490130962363</v>
+      </c>
+      <c r="D8">
+        <v>17.321490130962363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>Processes!A7</f>
+        <f>Processes!A8</f>
         <v>VEXP</v>
       </c>
       <c r="B9" t="s">
@@ -1842,26 +2075,31 @@
       <c r="C9">
         <v>0.22823067200820557</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0.22823067200820557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>Processes!A8</f>
+        <f>Processes!A9</f>
         <v>CND</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10">
-        <v>13.370209054875414</v>
+        <v>14.086767101886057</v>
+      </c>
+      <c r="D10">
+        <v>14.086767101886057</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8BD5D001-3290-4A51-98AB-A9AB044B1924}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{176DE76D-E711-4C52-A9A1-6A7085C1A286}">
           <x14:formula1>
             <xm:f>Validate!$D$2:$D$3</xm:f>
           </x14:formula1>

--- a/Examples/orcvcr/orcvcr_model.xlsx
+++ b/Examples/orcvcr/orcvcr_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\orcvcr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAC4000-124D-43C7-B68B-F8F10D48C83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59F6B79-4472-4CF2-B418-662680B81384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="8" xr2:uid="{E29BBF69-888A-4B0D-A36F-5F6BD99DC033}"/>
+    <workbookView xWindow="5580" yWindow="375" windowWidth="17265" windowHeight="12525" firstSheet="3" activeTab="5" xr2:uid="{E29BBF69-888A-4B0D-A36F-5F6BD99DC033}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical Diagram" sheetId="1" r:id="rId1"/>
@@ -308,12 +308,6 @@
     <t>(kW)</t>
   </si>
   <si>
-    <t>(c/h)</t>
-  </si>
-  <si>
-    <t>(c/kWh)</t>
-  </si>
-  <si>
     <t>Internal</t>
   </si>
   <si>
@@ -324,6 +318,12 @@
   </si>
   <si>
     <t>External</t>
+  </si>
+  <si>
+    <t>(c$/h)</t>
+  </si>
+  <si>
+    <t>(c$/kWh)</t>
   </si>
 </sst>
 </file>
@@ -1247,10 +1247,10 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
         <v>77</v>
@@ -1669,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0C34D9-3156-4D42-9D3A-CA3AAFB07BAA}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1940,7 +1940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C739F77A-4BB8-47BE-8329-5157E8DF3B0D}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1954,10 +1954,10 @@
         <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/Examples/orcvcr/orcvcr_model.xlsx
+++ b/Examples/orcvcr/orcvcr_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\orcvcr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\orcvcr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59F6B79-4472-4CF2-B418-662680B81384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCD9BA7-03F6-4512-A6B7-541B192FDB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="375" windowWidth="17265" windowHeight="12525" firstSheet="3" activeTab="5" xr2:uid="{E29BBF69-888A-4B0D-A36F-5F6BD99DC033}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="23550" windowHeight="13635" activeTab="4" xr2:uid="{E29BBF69-888A-4B0D-A36F-5F6BD99DC033}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical Diagram" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,7 @@
     <sheet name="Exergy" sheetId="6" r:id="rId5"/>
     <sheet name="Format" sheetId="5" r:id="rId6"/>
     <sheet name="WasteDefinition" sheetId="7" r:id="rId7"/>
-    <sheet name="WasteAllocation" sheetId="8" r:id="rId8"/>
-    <sheet name="ResourcesCost" sheetId="9" r:id="rId9"/>
+    <sheet name="ResourcesCost" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="DATOS" localSheetId="4">Exergy!#REF!</definedName>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
   <si>
     <t>Flows</t>
   </si>
@@ -284,15 +283,6 @@
     <t>DIAGNOSIS</t>
   </si>
   <si>
-    <t>R134a</t>
-  </si>
-  <si>
-    <t>R1234ze</t>
-  </si>
-  <si>
-    <t>R227ea</t>
-  </si>
-  <si>
     <t>recycle</t>
   </si>
   <si>
@@ -314,9 +304,6 @@
     <t>REF</t>
   </si>
   <si>
-    <t>WT10</t>
-  </si>
-  <si>
     <t>External</t>
   </si>
   <si>
@@ -324,6 +311,15 @@
   </si>
   <si>
     <t>(c$/kWh)</t>
+  </si>
+  <si>
+    <t>ETAC75</t>
+  </si>
+  <si>
+    <t>TCND35</t>
+  </si>
+  <si>
+    <t>TBLR85</t>
   </si>
 </sst>
 </file>
@@ -345,7 +341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,12 +360,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -383,11 +373,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1015,7 +1004,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1192,7 +1181,7 @@
         <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1234,430 +1223,360 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C71C192-3DC3-406B-9DFF-73A67AE08F6E}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>Flows!A2</f>
-        <v>B1</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>85.15</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="C2">
-        <v>112.7</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="D2">
-        <v>91.23</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="E2">
-        <v>128.6</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="F2">
-        <v>108.6</v>
-      </c>
-      <c r="G2">
-        <v>105.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>Flows!A3</f>
-        <v>B2</v>
+        <v>129.69999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>43.6</v>
+        <v>68.78</v>
       </c>
       <c r="C3">
-        <v>57.7</v>
+        <v>69</v>
       </c>
       <c r="D3">
-        <v>46.86</v>
+        <v>68.78</v>
       </c>
       <c r="E3">
-        <v>83.15</v>
+        <v>75.55</v>
       </c>
       <c r="F3">
-        <v>61.96</v>
-      </c>
-      <c r="G3">
-        <v>61.87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>Flows!A4</f>
-        <v>B3</v>
+        <v>68.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>38.630000000000003</v>
+        <v>60.94</v>
       </c>
       <c r="C4">
-        <v>51.13</v>
+        <v>60.94</v>
       </c>
       <c r="D4">
-        <v>41.39</v>
+        <v>60.94</v>
       </c>
       <c r="E4">
-        <v>78.25</v>
+        <v>61.44</v>
       </c>
       <c r="F4">
-        <v>55.76</v>
-      </c>
-      <c r="G4">
-        <v>57.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>Flows!A5</f>
-        <v>B4</v>
+        <v>60.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>40.36</v>
+        <v>63.68</v>
       </c>
       <c r="C5">
-        <v>53.42</v>
+        <v>63.68</v>
       </c>
       <c r="D5">
-        <v>43.24</v>
+        <v>63.68</v>
       </c>
       <c r="E5">
-        <v>82.03</v>
+        <v>64.08</v>
       </c>
       <c r="F5">
-        <v>59.33</v>
-      </c>
-      <c r="G5">
-        <v>59.89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>Flows!A6</f>
-        <v>B5</v>
+        <v>63.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>43.79</v>
+        <v>37.97</v>
       </c>
       <c r="C6">
-        <v>43.79</v>
+        <v>34.79</v>
       </c>
       <c r="D6">
-        <v>43.79</v>
+        <v>37.979999999999997</v>
       </c>
       <c r="E6">
-        <v>67.66</v>
+        <v>30.41</v>
       </c>
       <c r="F6">
-        <v>55.39</v>
-      </c>
-      <c r="G6">
-        <v>56.31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>Flows!A7</f>
-        <v>B6</v>
+        <v>34.82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
       </c>
       <c r="B7">
-        <v>41.06</v>
+        <v>33.380000000000003</v>
       </c>
       <c r="C7">
-        <v>41.06</v>
+        <v>30.58</v>
       </c>
       <c r="D7">
-        <v>41.06</v>
+        <v>33.380000000000003</v>
       </c>
       <c r="E7">
-        <v>64.61</v>
+        <v>25.68</v>
       </c>
       <c r="F7">
-        <v>51.27</v>
-      </c>
-      <c r="G7">
-        <v>53.17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f>Flows!A8</f>
-        <v>B7</v>
+        <v>30.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>23.09</v>
+        <v>10.25</v>
       </c>
       <c r="C8">
-        <v>23.09</v>
+        <v>9.3889999999999993</v>
       </c>
       <c r="D8">
-        <v>23.09</v>
+        <v>10.25</v>
       </c>
       <c r="E8">
-        <v>46.65</v>
+        <v>8.1389999999999993</v>
       </c>
       <c r="F8">
-        <v>33.450000000000003</v>
-      </c>
-      <c r="G8">
-        <v>35.380000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>Flows!A9</f>
-        <v>B8</v>
+        <v>9.3989999999999991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
       </c>
       <c r="B9">
-        <v>48.44</v>
+        <v>42.06</v>
       </c>
       <c r="C9">
-        <v>48.44</v>
+        <v>38.53</v>
       </c>
       <c r="D9">
-        <v>48.44</v>
+        <v>42.09</v>
       </c>
       <c r="E9">
-        <v>72.45</v>
+        <v>36.65</v>
       </c>
       <c r="F9">
-        <v>60.3</v>
-      </c>
-      <c r="G9">
-        <v>61.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>Flows!A10</f>
-        <v>WT</v>
+        <v>38.57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>33.619999999999997</v>
+        <v>53.04</v>
       </c>
       <c r="C10">
-        <v>44.5</v>
+        <v>49.72</v>
       </c>
       <c r="D10">
-        <v>33.770000000000003</v>
+        <v>53.04</v>
       </c>
       <c r="E10">
-        <v>36.51</v>
+        <v>47.67</v>
       </c>
       <c r="F10">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="G10">
+        <v>49.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>39.57</v>
+      </c>
+      <c r="C11">
+        <v>36.25</v>
+      </c>
+      <c r="D11">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="E11">
         <v>35.340000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f>Flows!A11</f>
-        <v>WC</v>
-      </c>
-      <c r="B11">
-        <v>31.55</v>
-      </c>
-      <c r="C11">
-        <v>31.55</v>
-      </c>
-      <c r="D11">
-        <v>31.55</v>
-      </c>
-      <c r="E11">
+      <c r="F11">
+        <v>36.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>3.2040000000000002</v>
+      </c>
+      <c r="C12">
+        <v>3.2040000000000002</v>
+      </c>
+      <c r="D12">
+        <v>3.2040000000000002</v>
+      </c>
+      <c r="E12">
+        <v>3.0859999999999999</v>
+      </c>
+      <c r="F12">
+        <v>2.8039999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>104.9</v>
+      </c>
+      <c r="C13">
+        <v>104.9</v>
+      </c>
+      <c r="D13">
+        <v>104.9</v>
+      </c>
+      <c r="E13">
+        <v>101.6</v>
+      </c>
+      <c r="F13">
+        <v>98.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="F11">
-        <v>33.42</v>
-      </c>
-      <c r="G11">
-        <v>31.91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>Flows!A12</f>
-        <v>WP</v>
-      </c>
-      <c r="B12">
-        <v>2.0310000000000001</v>
-      </c>
-      <c r="C12">
-        <v>2.6880000000000002</v>
-      </c>
-      <c r="D12">
-        <v>2.1760000000000002</v>
-      </c>
-      <c r="E12">
-        <v>4.4210000000000003</v>
-      </c>
-      <c r="F12">
-        <v>4.1879999999999997</v>
-      </c>
-      <c r="G12">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f>Flows!A13</f>
-        <v>QBLR</v>
-      </c>
-      <c r="B13">
-        <v>63.42</v>
-      </c>
-      <c r="C13">
-        <v>83.94</v>
-      </c>
-      <c r="D13">
-        <v>67.95</v>
-      </c>
-      <c r="E13">
-        <v>69.33</v>
-      </c>
-      <c r="F13">
-        <v>75.849999999999994</v>
-      </c>
-      <c r="G13">
-        <v>67.709999999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>Flows!A14</f>
-        <v>QEVP</v>
-      </c>
       <c r="B14">
-        <v>13.24</v>
+        <v>18.920000000000002</v>
       </c>
       <c r="C14">
-        <v>13.24</v>
+        <v>17.34</v>
       </c>
       <c r="D14">
-        <v>13.24</v>
+        <v>18.920000000000002</v>
       </c>
       <c r="E14">
-        <v>13.24</v>
+        <v>14.35</v>
       </c>
       <c r="F14">
-        <v>13.24</v>
-      </c>
-      <c r="G14">
-        <v>13.24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>Flows!A15</f>
-        <v>WN</v>
+        <v>17.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f>Flows!A16</f>
-        <v>QEXP</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>75</v>
       </c>
       <c r="B16">
-        <f>B6-B7</f>
-        <v>2.7299999999999969</v>
+        <f>Exergy!B6-Exergy!B7</f>
+        <v>4.5899999999999963</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:G16" si="0">C6-C7</f>
-        <v>2.7299999999999969</v>
+        <f>Exergy!C6-Exergy!C7</f>
+        <v>4.2100000000000009</v>
       </c>
       <c r="D16">
+        <v>4.5949999999999998</v>
+      </c>
+      <c r="E16">
+        <f>Exergy!E6-Exergy!E7</f>
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="F16">
+        <f>Exergy!F6-Exergy!F7</f>
+        <v>4.2100000000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:F17" si="0">B3-B4+B9-B6</f>
+        <v>11.930000000000007</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="0"/>
-        <v>2.7299999999999969</v>
-      </c>
-      <c r="E16">
+        <v>11.800000000000004</v>
+      </c>
+      <c r="D17">
+        <v>11.95</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>3.0499999999999972</v>
-      </c>
-      <c r="F16">
+        <v>20.349999999999998</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="0"/>
-        <v>4.1199999999999974</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>3.1400000000000006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f>Flows!A17</f>
-        <v>QCND</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ref="B17:C17" si="1">B3-B4+B9-B6</f>
-        <v>9.6199999999999974</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
-        <v>11.219999999999999</v>
-      </c>
-      <c r="D17">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="E17">
-        <f>E3-E4+E9-E6</f>
-        <v>9.6900000000000119</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ref="F17:G17" si="2">F3-F4+F9-F6</f>
-        <v>11.11</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>9.5600000000000023</v>
+        <v>11.430000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -1669,7 +1588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0C34D9-3156-4D42-9D3A-CA3AAFB07BAA}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1703,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1717,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1745,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1759,7 +1678,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1773,7 +1692,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1802,15 +1721,15 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1845,98 +1764,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5F385F-C817-40BD-A5CF-BFEFDFAA0650}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C739F77A-4BB8-47BE-8329-5157E8DF3B0D}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -1951,13 +1778,13 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/Examples/orcvcr/orcvcr_model.xlsx
+++ b/Examples/orcvcr/orcvcr_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\orcvcr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\orcvcr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCD9BA7-03F6-4512-A6B7-541B192FDB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD666936-22C3-4ABC-9C71-4598C57E4086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="23550" windowHeight="13635" activeTab="4" xr2:uid="{E29BBF69-888A-4B0D-A36F-5F6BD99DC033}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{E29BBF69-888A-4B0D-A36F-5F6BD99DC033}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical Diagram" sheetId="1" r:id="rId1"/>
@@ -465,9 +465,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -505,7 +505,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -611,7 +611,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -753,7 +753,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1225,7 +1225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C71C192-3DC3-406B-9DFF-73A67AE08F6E}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
@@ -1588,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0C34D9-3156-4D42-9D3A-CA3AAFB07BAA}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
@@ -1633,7 +1633,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>77</v>
@@ -1661,7 +1661,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>81</v>

--- a/Examples/orcvcr/orcvcr_model.xlsx
+++ b/Examples/orcvcr/orcvcr_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\orcvcr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unizares-my.sharepoint.com/personal/ctorresc_unizar_es/Documents/Termoeconomia/Modelos EES/ORC-VCR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD666936-22C3-4ABC-9C71-4598C57E4086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="8_{16CB7228-29AB-4522-96A1-C1F87403D354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEA73845-7E2C-4874-B298-A5967FF0E02A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{E29BBF69-888A-4B0D-A36F-5F6BD99DC033}"/>
+    <workbookView xWindow="3225" yWindow="315" windowWidth="19980" windowHeight="12525" xr2:uid="{E29BBF69-888A-4B0D-A36F-5F6BD99DC033}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical Diagram" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Exergy" sheetId="6" r:id="rId5"/>
     <sheet name="Format" sheetId="5" r:id="rId6"/>
     <sheet name="WasteDefinition" sheetId="7" r:id="rId7"/>
-    <sheet name="ResourcesCost" sheetId="9" r:id="rId8"/>
+    <sheet name="WasteAllocation" sheetId="8" r:id="rId8"/>
+    <sheet name="ResourcesCost" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="DATOS" localSheetId="4">Exergy!#REF!</definedName>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
   <si>
     <t>Flows</t>
   </si>
@@ -283,43 +284,52 @@
     <t>DIAGNOSIS</t>
   </si>
   <si>
+    <t>WVEXP</t>
+  </si>
+  <si>
     <t>recycle</t>
   </si>
   <si>
+    <t>QCMD</t>
+  </si>
+  <si>
+    <t>QEXP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type </t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>(kW)</t>
+  </si>
+  <si>
+    <t>(c/h)</t>
+  </si>
+  <si>
+    <t>(c/kWh)</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
     <t>ETAT75</t>
   </si>
   <si>
-    <t>QEXP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type </t>
-  </si>
-  <si>
-    <t>(kW)</t>
-  </si>
-  <si>
-    <t>Internal</t>
-  </si>
-  <si>
-    <t>REF</t>
-  </si>
-  <si>
-    <t>External</t>
-  </si>
-  <si>
-    <t>(c$/h)</t>
-  </si>
-  <si>
-    <t>(c$/kWh)</t>
-  </si>
-  <si>
     <t>ETAC75</t>
   </si>
   <si>
     <t>TCND35</t>
   </si>
   <si>
+    <t>CG</t>
+  </si>
+  <si>
     <t>TBLR85</t>
+  </si>
+  <si>
+    <t>W200</t>
   </si>
 </sst>
 </file>
@@ -766,7 +776,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -877,7 +887,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +985,7 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1004,7 +1014,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1041,7 +1051,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1191,7 @@
         <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1223,360 +1233,403 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C71C192-3DC3-406B-9DFF-73A67AE08F6E}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F17"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2">
-        <v>134.30000000000001</v>
+        <v>620.79999999999995</v>
       </c>
       <c r="C2">
-        <v>134.30000000000001</v>
+        <v>637.79999999999995</v>
       </c>
       <c r="D2">
-        <v>134.30000000000001</v>
+        <v>620.79999999999995</v>
       </c>
       <c r="E2">
-        <v>134.30000000000001</v>
+        <v>694</v>
       </c>
       <c r="F2">
-        <v>129.69999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>641.4</v>
+      </c>
+      <c r="G2">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3">
-        <v>68.78</v>
+        <v>317.8</v>
       </c>
       <c r="C3">
-        <v>69</v>
+        <v>326.89999999999998</v>
       </c>
       <c r="D3">
-        <v>68.78</v>
+        <v>317.8</v>
       </c>
       <c r="E3">
-        <v>75.55</v>
+        <v>390.3</v>
       </c>
       <c r="F3">
-        <v>68.62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>339.5</v>
+      </c>
+      <c r="G3">
+        <v>599.79999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4">
-        <v>60.94</v>
+        <v>281.60000000000002</v>
       </c>
       <c r="C4">
-        <v>60.94</v>
+        <v>289.3</v>
       </c>
       <c r="D4">
-        <v>60.94</v>
+        <v>281.60000000000002</v>
       </c>
       <c r="E4">
-        <v>61.44</v>
+        <v>317.39999999999998</v>
       </c>
       <c r="F4">
-        <v>60.94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>301.5</v>
+      </c>
+      <c r="G4">
+        <v>531.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5">
-        <v>63.68</v>
+        <v>294.3</v>
       </c>
       <c r="C5">
-        <v>63.68</v>
+        <v>302.3</v>
       </c>
       <c r="D5">
-        <v>63.68</v>
+        <v>294.3</v>
       </c>
       <c r="E5">
-        <v>64.08</v>
+        <v>331.1</v>
       </c>
       <c r="F5">
-        <v>63.33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>313.3</v>
+      </c>
+      <c r="G5">
+        <v>555.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
       <c r="B6">
-        <v>37.97</v>
+        <v>220.7</v>
       </c>
       <c r="C6">
-        <v>34.79</v>
+        <v>220.7</v>
       </c>
       <c r="D6">
-        <v>37.979999999999997</v>
+        <v>215.2</v>
       </c>
       <c r="E6">
-        <v>30.41</v>
+        <v>197.9</v>
       </c>
       <c r="F6">
-        <v>34.82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>220.7</v>
+      </c>
+      <c r="G6">
+        <v>220.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7">
-        <v>33.380000000000003</v>
+        <v>194</v>
       </c>
       <c r="C7">
-        <v>30.58</v>
+        <v>194</v>
       </c>
       <c r="D7">
-        <v>33.380000000000003</v>
+        <v>189.2</v>
       </c>
       <c r="E7">
-        <v>25.68</v>
+        <v>167.1</v>
       </c>
       <c r="F7">
-        <v>30.61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="G7">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="B8">
-        <v>10.25</v>
+        <v>59.57</v>
       </c>
       <c r="C8">
-        <v>9.3889999999999993</v>
+        <v>59.57</v>
       </c>
       <c r="D8">
-        <v>10.25</v>
+        <v>58.08</v>
       </c>
       <c r="E8">
-        <v>8.1389999999999993</v>
+        <v>52.98</v>
       </c>
       <c r="F8">
-        <v>9.3989999999999991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59.57</v>
+      </c>
+      <c r="G8">
+        <v>59.57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9">
-        <v>42.06</v>
+        <v>244.5</v>
       </c>
       <c r="C9">
-        <v>38.53</v>
+        <v>244.5</v>
       </c>
       <c r="D9">
-        <v>42.09</v>
+        <v>238.5</v>
       </c>
       <c r="E9">
-        <v>36.65</v>
+        <v>238.6</v>
       </c>
       <c r="F9">
-        <v>38.57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>244.5</v>
+      </c>
+      <c r="G9">
+        <v>244.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
       <c r="B10">
-        <v>53.04</v>
+        <v>245.1</v>
       </c>
       <c r="C10">
-        <v>49.72</v>
+        <v>245.5</v>
       </c>
       <c r="D10">
-        <v>53.04</v>
+        <v>245.1</v>
       </c>
       <c r="E10">
-        <v>47.67</v>
+        <v>246.3</v>
       </c>
       <c r="F10">
-        <v>49.35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>244.2</v>
+      </c>
+      <c r="G10">
+        <v>462.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11">
-        <v>39.57</v>
+        <v>230</v>
       </c>
       <c r="C11">
-        <v>36.25</v>
+        <v>230</v>
       </c>
       <c r="D11">
-        <v>40.590000000000003</v>
+        <v>230</v>
       </c>
       <c r="E11">
-        <v>35.340000000000003</v>
+        <v>230</v>
       </c>
       <c r="F11">
-        <v>36.29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="G11">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
       <c r="B12">
-        <v>3.2040000000000002</v>
+        <v>14.81</v>
       </c>
       <c r="C12">
-        <v>3.2040000000000002</v>
+        <v>15.21</v>
       </c>
       <c r="D12">
-        <v>3.2040000000000002</v>
+        <v>14.81</v>
       </c>
       <c r="E12">
-        <v>3.0859999999999999</v>
+        <v>15.94</v>
       </c>
       <c r="F12">
-        <v>2.8039999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13.87</v>
+      </c>
+      <c r="G12">
+        <v>27.94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
       <c r="B13">
-        <v>104.9</v>
+        <v>462.1</v>
       </c>
       <c r="C13">
-        <v>104.9</v>
+        <v>474.8</v>
       </c>
       <c r="D13">
-        <v>104.9</v>
+        <v>462.1</v>
       </c>
       <c r="E13">
-        <v>101.6</v>
+        <v>505.9</v>
       </c>
       <c r="F13">
-        <v>98.83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>477.2</v>
+      </c>
+      <c r="G13">
+        <v>872.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
       <c r="B14">
-        <v>18.920000000000002</v>
+        <v>64.2</v>
       </c>
       <c r="C14">
-        <v>17.34</v>
+        <v>64.2</v>
       </c>
       <c r="D14">
-        <v>18.920000000000002</v>
+        <v>62.6</v>
       </c>
       <c r="E14">
-        <v>14.35</v>
+        <v>54.51</v>
       </c>
       <c r="F14">
-        <v>17.36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64.2</v>
+      </c>
+      <c r="G14">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16">
-        <f>Exergy!B6-Exergy!B7</f>
-        <v>4.5899999999999963</v>
+        <v>26.71</v>
       </c>
       <c r="C16">
-        <f>Exergy!C6-Exergy!C7</f>
-        <v>4.2100000000000009</v>
+        <v>26.71</v>
       </c>
       <c r="D16">
-        <v>4.5949999999999998</v>
+        <v>26.04</v>
       </c>
       <c r="E16">
-        <f>Exergy!E6-Exergy!E7</f>
-        <v>4.7300000000000004</v>
+        <v>30.78</v>
       </c>
       <c r="F16">
-        <f>Exergy!F6-Exergy!F7</f>
-        <v>4.2100000000000009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26.71</v>
+      </c>
+      <c r="G16">
+        <v>26.71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17:F17" si="0">B3-B4+B9-B6</f>
-        <v>11.930000000000007</v>
+        <v>59.93</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>11.800000000000004</v>
+        <v>61.34</v>
       </c>
       <c r="D17">
-        <v>11.95</v>
+        <v>59.5</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>20.349999999999998</v>
+        <v>113.6</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>11.430000000000007</v>
+        <v>61.71</v>
+      </c>
+      <c r="G17">
+        <v>92.05</v>
       </c>
     </row>
   </sheetData>
@@ -1588,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0C34D9-3156-4D42-9D3A-CA3AAFB07BAA}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1633,10 +1686,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1661,10 +1714,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1678,7 +1731,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1692,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1705,7 +1758,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,7 +1774,7 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1729,7 +1782,7 @@
         <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1737,10 +1790,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1764,11 +1817,42 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5F385F-C817-40BD-A5CF-BFEFDFAA0650}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C739F77A-4BB8-47BE-8329-5157E8DF3B0D}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,13 +1862,13 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
         <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1795,10 +1879,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1810,10 +1894,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>7.6829145810398263</v>
+        <v>41.525403164603318</v>
       </c>
       <c r="D3">
-        <v>7.6829145810398263</v>
+        <v>83.050806329206637</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1825,10 +1909,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>32.311730674775212</v>
+        <v>207.66675438557505</v>
       </c>
       <c r="D4">
-        <v>32.311730674775212</v>
+        <v>415.33350877115009</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1840,10 +1924,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>1.1903198604744736</v>
+        <v>5.7198078864492281</v>
       </c>
       <c r="D5">
-        <v>1.1903198604744736</v>
+        <v>11.439615772898456</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1855,10 +1939,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>27.921452616599066</v>
+        <v>141.90589075325485</v>
       </c>
       <c r="D6">
-        <v>27.921452616599066</v>
+        <v>141.90589075325485</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1870,10 +1954,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>9.1349685240054317</v>
+        <v>43.526643673472357</v>
       </c>
       <c r="D7">
-        <v>9.1349685240054317</v>
+        <v>43.526643673472357</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1885,10 +1969,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>17.321490130962363</v>
+        <v>64.955587991108871</v>
       </c>
       <c r="D8">
-        <v>17.321490130962363</v>
+        <v>64.955587991108871</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1900,10 +1984,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0.22823067200820557</v>
+        <v>1.2324456288443102</v>
       </c>
       <c r="D9">
-        <v>0.22823067200820557</v>
+        <v>1.2324456288443102</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1915,10 +1999,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>14.086767101886057</v>
+        <v>72.471934811431737</v>
       </c>
       <c r="D10">
-        <v>14.086767101886057</v>
+        <v>108.70790221714761</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/orcvcr/orcvcr_model.xlsx
+++ b/Examples/orcvcr/orcvcr_model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unizares-my.sharepoint.com/personal/ctorresc_unizar_es/Documents/Termoeconomia/Modelos EES/ORC-VCR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\orcvcr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="8_{16CB7228-29AB-4522-96A1-C1F87403D354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEA73845-7E2C-4874-B298-A5967FF0E02A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0C2081-E370-4A5D-9E65-7C0566219E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="315" windowWidth="19980" windowHeight="12525" xr2:uid="{E29BBF69-888A-4B0D-A36F-5F6BD99DC033}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" firstSheet="1" activeTab="8" xr2:uid="{E29BBF69-888A-4B0D-A36F-5F6BD99DC033}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical Diagram" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
   <si>
     <t>Flows</t>
   </si>
@@ -284,13 +284,7 @@
     <t>DIAGNOSIS</t>
   </si>
   <si>
-    <t>WVEXP</t>
-  </si>
-  <si>
     <t>recycle</t>
-  </si>
-  <si>
-    <t>QCMD</t>
   </si>
   <si>
     <t>QEXP</t>
@@ -776,7 +770,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -887,7 +881,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +979,7 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1014,7 +1008,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1191,7 +1185,7 @@
         <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1236,7 +1230,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="B16" sqref="B16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,22 +1240,22 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" t="s">
-        <v>87</v>
-      </c>
       <c r="G1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1588,25 +1582,31 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16">
-        <v>26.71</v>
+        <f>B6-B7</f>
+        <v>26.699999999999989</v>
       </c>
       <c r="C16">
-        <v>26.71</v>
+        <f t="shared" ref="C16:G16" si="0">C6-C7</f>
+        <v>26.699999999999989</v>
       </c>
       <c r="D16">
-        <v>26.04</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>30.78</v>
+        <f t="shared" si="0"/>
+        <v>30.800000000000011</v>
       </c>
       <c r="F16">
-        <v>26.71</v>
+        <f t="shared" si="0"/>
+        <v>26.699999999999989</v>
       </c>
       <c r="G16">
-        <v>26.71</v>
+        <f t="shared" si="0"/>
+        <v>26.699999999999989</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1675,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1689,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1717,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1731,7 +1731,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1745,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1758,7 +1758,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,12 +1774,12 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1831,7 +1831,7 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1851,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C739F77A-4BB8-47BE-8329-5157E8DF3B0D}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1862,13 +1862,13 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1894,10 +1894,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>41.525403164603318</v>
+        <v>23.06084796908064</v>
       </c>
       <c r="D3">
-        <v>83.050806329206637</v>
+        <v>33.755111728679623</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1909,10 +1909,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>207.66675438557505</v>
+        <v>258.83154722805835</v>
       </c>
       <c r="D4">
-        <v>415.33350877115009</v>
+        <v>524.80526428468806</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1924,10 +1924,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>5.7198078864492281</v>
+        <v>2.2688100119799026</v>
       </c>
       <c r="D5">
-        <v>11.439615772898456</v>
+        <v>2.9118495260250095</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1939,10 +1939,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>141.90589075325485</v>
+        <v>237.79584994793265</v>
       </c>
       <c r="D6">
-        <v>141.90589075325485</v>
+        <v>237.79584994793265</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1954,10 +1954,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>43.526643673472357</v>
+        <v>23.43612094959958</v>
       </c>
       <c r="D7">
-        <v>43.526643673472357</v>
+        <v>23.43612094959958</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1969,10 +1969,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>64.955587991108871</v>
+        <v>17.678671835630151</v>
       </c>
       <c r="D8">
-        <v>64.955587991108871</v>
+        <v>69.225790334016224</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1984,10 +1984,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>1.2324456288443102</v>
+        <v>0.27387680640984668</v>
       </c>
       <c r="D9">
-        <v>1.2324456288443102</v>
+        <v>0.27387680640984668</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1999,10 +1999,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>72.471934811431737</v>
+        <v>39.7932767389091</v>
       </c>
       <c r="D10">
-        <v>108.70790221714761</v>
+        <v>51.001661989752904</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/orcvcr/orcvcr_model.xlsx
+++ b/Examples/orcvcr/orcvcr_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\orcvcr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0C2081-E370-4A5D-9E65-7C0566219E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABEF5F3-8B56-4B85-90AB-0AB898EB4C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" firstSheet="1" activeTab="8" xr2:uid="{E29BBF69-888A-4B0D-A36F-5F6BD99DC033}"/>
+    <workbookView xWindow="5310" yWindow="720" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="6" xr2:uid="{E29BBF69-888A-4B0D-A36F-5F6BD99DC033}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical Diagram" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="87">
   <si>
     <t>Flows</t>
   </si>
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:G16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,22 +1263,22 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>620.79999999999995</v>
+        <v>617.20000000000005</v>
       </c>
       <c r="C2">
-        <v>637.79999999999995</v>
+        <v>661.3</v>
       </c>
       <c r="D2">
-        <v>620.79999999999995</v>
+        <v>617.20000000000005</v>
       </c>
       <c r="E2">
-        <v>694</v>
+        <v>690.1</v>
       </c>
       <c r="F2">
-        <v>641.4</v>
+        <v>637.5</v>
       </c>
       <c r="G2">
-        <v>1172</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1286,22 +1286,22 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>317.8</v>
+        <v>315.3</v>
       </c>
       <c r="C3">
-        <v>326.89999999999998</v>
+        <v>339.1</v>
       </c>
       <c r="D3">
-        <v>317.8</v>
+        <v>315.3</v>
       </c>
       <c r="E3">
-        <v>390.3</v>
+        <v>387.3</v>
       </c>
       <c r="F3">
-        <v>339.5</v>
+        <v>336.5</v>
       </c>
       <c r="G3">
-        <v>599.79999999999995</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1309,22 +1309,22 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>281.60000000000002</v>
+        <v>246.9</v>
       </c>
       <c r="C4">
-        <v>289.3</v>
+        <v>264.5</v>
       </c>
       <c r="D4">
-        <v>281.60000000000002</v>
+        <v>246.9</v>
       </c>
       <c r="E4">
-        <v>317.39999999999998</v>
+        <v>279.8</v>
       </c>
       <c r="F4">
-        <v>301.5</v>
+        <v>264.3</v>
       </c>
       <c r="G4">
-        <v>531.5</v>
+        <v>465.9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1332,22 +1332,22 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>294.3</v>
+        <v>259.5</v>
       </c>
       <c r="C5">
-        <v>302.3</v>
+        <v>278.10000000000002</v>
       </c>
       <c r="D5">
-        <v>294.3</v>
+        <v>259.5</v>
       </c>
       <c r="E5">
-        <v>331.1</v>
+        <v>293.5</v>
       </c>
       <c r="F5">
-        <v>313.3</v>
+        <v>276.2</v>
       </c>
       <c r="G5">
-        <v>555.4</v>
+        <v>489.8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1355,22 +1355,22 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>220.7</v>
+        <v>193.5</v>
       </c>
       <c r="C6">
-        <v>220.7</v>
+        <v>193.5</v>
       </c>
       <c r="D6">
-        <v>215.2</v>
+        <v>181.4</v>
       </c>
       <c r="E6">
-        <v>197.9</v>
+        <v>174.5</v>
       </c>
       <c r="F6">
-        <v>220.7</v>
+        <v>193.5</v>
       </c>
       <c r="G6">
-        <v>220.7</v>
+        <v>193.5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1378,22 +1378,22 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>194</v>
+        <v>167.2</v>
       </c>
       <c r="C7">
-        <v>194</v>
+        <v>167.2</v>
       </c>
       <c r="D7">
-        <v>189.2</v>
+        <v>156.80000000000001</v>
       </c>
       <c r="E7">
-        <v>167.1</v>
+        <v>144.19999999999999</v>
       </c>
       <c r="F7">
-        <v>194</v>
+        <v>167.2</v>
       </c>
       <c r="G7">
-        <v>194</v>
+        <v>167.2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1401,22 +1401,22 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>59.57</v>
+        <v>55.19</v>
       </c>
       <c r="C8">
-        <v>59.57</v>
+        <v>55.19</v>
       </c>
       <c r="D8">
-        <v>58.08</v>
+        <v>51.74</v>
       </c>
       <c r="E8">
-        <v>52.98</v>
+        <v>49.08</v>
       </c>
       <c r="F8">
-        <v>59.57</v>
+        <v>55.19</v>
       </c>
       <c r="G8">
-        <v>59.57</v>
+        <v>55.19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1424,22 +1424,22 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>244.5</v>
+        <v>240.8</v>
       </c>
       <c r="C9">
-        <v>244.5</v>
+        <v>240.8</v>
       </c>
       <c r="D9">
-        <v>238.5</v>
+        <v>226.5</v>
       </c>
       <c r="E9">
-        <v>238.6</v>
+        <v>235.4</v>
       </c>
       <c r="F9">
-        <v>244.5</v>
+        <v>240.8</v>
       </c>
       <c r="G9">
-        <v>244.5</v>
+        <v>240.8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1450,7 +1450,7 @@
         <v>245.1</v>
       </c>
       <c r="C10">
-        <v>245.5</v>
+        <v>246.2</v>
       </c>
       <c r="D10">
         <v>245.1</v>
@@ -1496,7 +1496,7 @@
         <v>14.81</v>
       </c>
       <c r="C12">
-        <v>15.21</v>
+        <v>15.86</v>
       </c>
       <c r="D12">
         <v>14.81</v>
@@ -1516,22 +1516,22 @@
         <v>53</v>
       </c>
       <c r="B13">
-        <v>462.1</v>
+        <v>491</v>
       </c>
       <c r="C13">
-        <v>474.8</v>
+        <v>526</v>
       </c>
       <c r="D13">
-        <v>462.1</v>
+        <v>491</v>
       </c>
       <c r="E13">
-        <v>505.9</v>
+        <v>537.1</v>
       </c>
       <c r="F13">
-        <v>477.2</v>
+        <v>507.9</v>
       </c>
       <c r="G13">
-        <v>872.1</v>
+        <v>926.7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1539,22 +1539,22 @@
         <v>32</v>
       </c>
       <c r="B14">
-        <v>64.2</v>
+        <v>42.96</v>
       </c>
       <c r="C14">
-        <v>64.2</v>
+        <v>42.96</v>
       </c>
       <c r="D14">
-        <v>62.6</v>
+        <v>40.28</v>
       </c>
       <c r="E14">
-        <v>54.51</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="F14">
-        <v>64.2</v>
+        <v>42.96</v>
       </c>
       <c r="G14">
-        <v>64.2</v>
+        <v>42.96</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1585,28 +1585,22 @@
         <v>74</v>
       </c>
       <c r="B16">
-        <f>B6-B7</f>
-        <v>26.699999999999989</v>
+        <v>26.300000000000011</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:G16" si="0">C6-C7</f>
-        <v>26.699999999999989</v>
+        <v>26.300000000000011</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <v>24.599999999999994</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>30.800000000000011</v>
+        <v>30.300000000000011</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>26.699999999999989</v>
+        <v>26.300000000000011</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>26.699999999999989</v>
+        <v>26.300000000000011</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1614,22 +1608,22 @@
         <v>54</v>
       </c>
       <c r="B17">
-        <v>59.93</v>
+        <v>115.70000000000005</v>
       </c>
       <c r="C17">
-        <v>61.34</v>
+        <v>121.90000000000003</v>
       </c>
       <c r="D17">
-        <v>59.5</v>
+        <v>113.49999999999997</v>
       </c>
       <c r="E17">
-        <v>113.6</v>
+        <v>168.39999999999998</v>
       </c>
       <c r="F17">
-        <v>61.71</v>
+        <v>119.5</v>
       </c>
       <c r="G17">
-        <v>92.05</v>
+        <v>176.40000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1757,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91AFAEF-8001-4F32-AE2D-810B2147CCCF}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,7 +1776,7 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1818,7 +1812,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5F385F-C817-40BD-A5CF-BFEFDFAA0650}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1826,20 +1820,37 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -1851,7 +1862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C739F77A-4BB8-47BE-8329-5157E8DF3B0D}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Examples/orcvcr/orcvcr_model.xlsx
+++ b/Examples/orcvcr/orcvcr_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\orcvcr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABEF5F3-8B56-4B85-90AB-0AB898EB4C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842223AB-1DC9-41CD-9BC5-31898B8E4676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="720" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="6" xr2:uid="{E29BBF69-888A-4B0D-A36F-5F6BD99DC033}"/>
+    <workbookView xWindow="1965" yWindow="435" windowWidth="25740" windowHeight="14700" firstSheet="1" activeTab="3" xr2:uid="{E29BBF69-888A-4B0D-A36F-5F6BD99DC033}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical Diagram" sheetId="1" r:id="rId1"/>
@@ -1044,15 +1044,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E5D138-EAF1-4FBB-AB5C-0C0C44730BFD}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1060,7 +1061,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>35</v>
@@ -1069,7 +1070,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1077,7 +1078,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
@@ -1086,7 +1087,7 @@
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1094,7 +1095,7 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -1103,7 +1104,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1111,7 +1112,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -1120,7 +1121,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1128,7 +1129,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -1137,7 +1138,7 @@
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1145,7 +1146,7 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -1154,7 +1155,7 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1162,7 +1163,7 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
@@ -1171,7 +1172,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1179,7 +1180,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>63</v>
@@ -1188,7 +1189,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1196,7 +1197,7 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>56</v>
@@ -1205,7 +1206,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1217,7 +1218,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E8 E2:E7 E9</xm:sqref>
+          <xm:sqref>B8 B2:B7 B9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1751,7 +1752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91AFAEF-8001-4F32-AE2D-810B2147CCCF}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
